--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/OKLAHOMA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/OKLAHOMA_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D992"/>
+  <dimension ref="A1:D986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C10">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C32">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C44">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C46">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C53">
@@ -1387,7 +1387,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C77">
@@ -1491,7 +1491,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C85">
@@ -1517,7 +1517,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C87">
@@ -1777,7 +1777,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C107">
@@ -1855,7 +1855,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C113">
@@ -2120,7 +2120,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C133">
@@ -2242,7 +2242,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C142">
@@ -2268,7 +2268,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C148">
@@ -2525,7 +2525,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C163">
@@ -2694,7 +2694,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C176">
@@ -2733,7 +2733,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C179">
@@ -2824,7 +2824,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C186">
@@ -2837,7 +2837,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C187">
@@ -2850,7 +2850,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C188">
@@ -2863,7 +2863,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C189">
@@ -2993,12 +2993,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C199">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C202">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C203">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C206">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C214">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C217">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C222">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C226">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C227">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C233">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C236">
@@ -3544,7 +3544,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C241">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C242">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C252">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C253">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C254">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C259">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C263">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C270">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C273">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C275">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C277">
@@ -4043,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C279">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C281">
@@ -4134,7 +4134,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C286">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C292">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C296">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C299">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C301">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C302">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C303">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C305">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C306">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C309">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C315">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C316">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C318">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C320">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C323">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C330">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C332">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C334">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C336">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C339">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C352">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C355">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C357">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C358">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C360">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C362">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C367">
@@ -5223,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C369">
@@ -5275,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C373">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C374">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C377">
@@ -5397,7 +5397,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C382">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C386">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C387">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C391">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C394">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C399">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C404">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C405">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C411">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C416">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C420">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C421">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C422">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C424">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C426">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C429">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C431">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C432">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C438">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C443">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C444">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C446">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C447">
@@ -6481,7 +6481,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C465">
@@ -7092,7 +7092,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C512">
@@ -7344,7 +7344,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C531">
@@ -7448,7 +7448,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C539">
@@ -7487,7 +7487,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C542">
@@ -7596,7 +7596,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C550">
@@ -7783,7 +7783,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C564">
@@ -7887,7 +7887,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C572">
@@ -7939,7 +7939,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C576">
@@ -8009,7 +8009,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C581">
@@ -8035,7 +8035,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C583">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C584">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C585">
@@ -8074,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C586">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C587">
@@ -8139,7 +8139,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C591">
@@ -8165,7 +8165,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C593">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C594">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C595">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C596">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C597">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C603">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C607">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C619">
@@ -8594,7 +8594,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C626">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C636">
@@ -9010,7 +9010,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C658">
@@ -9036,7 +9036,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C660">
@@ -9049,7 +9049,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C661">
@@ -9062,7 +9062,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C662">
@@ -9101,7 +9101,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C665">
@@ -9114,7 +9114,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C666">
@@ -9127,7 +9127,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C667">
@@ -9314,7 +9314,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C681">
@@ -9392,7 +9392,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C687">
@@ -9431,7 +9431,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C690">
@@ -9444,7 +9444,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C691">
@@ -9496,7 +9496,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C695">
@@ -9587,7 +9587,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C702">
@@ -9639,7 +9639,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C706">
@@ -9652,7 +9652,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C707">
@@ -9691,7 +9691,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C710">
@@ -9756,7 +9756,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C715">
@@ -9769,7 +9769,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C716">
@@ -9821,7 +9821,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C720">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C723">
@@ -9891,7 +9891,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C725">
@@ -9956,7 +9956,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C730">
@@ -9969,7 +9969,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C731">
@@ -9995,7 +9995,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C733">
@@ -10034,7 +10034,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C736">
@@ -10135,7 +10135,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C743">
@@ -10200,7 +10200,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C748">
@@ -10317,7 +10317,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C757">
@@ -10382,7 +10382,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C762">
@@ -10447,7 +10447,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C767">
@@ -10460,7 +10460,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C768">
@@ -10538,7 +10538,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C774">
@@ -10577,7 +10577,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C777">
@@ -10590,7 +10590,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C778">
@@ -10603,7 +10603,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C779">
@@ -10616,7 +10616,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C780">
@@ -10629,7 +10629,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C781">
@@ -10642,7 +10642,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C782">
@@ -10964,7 +10964,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C806">
@@ -11403,7 +11403,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C839">
@@ -11525,7 +11525,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C848">
@@ -11538,7 +11538,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C849">
@@ -11551,7 +11551,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C850">
@@ -11686,7 +11686,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C860">
@@ -11738,7 +11738,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C864">
@@ -11764,7 +11764,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C866">
@@ -11907,7 +11907,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C877">
@@ -11972,7 +11972,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C882">
@@ -11985,7 +11985,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C883">
@@ -12089,7 +12089,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C891">
@@ -12115,7 +12115,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C893">
@@ -12167,7 +12167,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C897">
@@ -12245,7 +12245,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C903">
@@ -12258,7 +12258,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C904">
@@ -12284,7 +12284,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C906">
@@ -12349,7 +12349,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C911">
@@ -12375,7 +12375,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C913">
@@ -12427,7 +12427,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C917">
@@ -12749,7 +12749,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C941">
@@ -12775,7 +12775,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C943">
@@ -12905,7 +12905,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C953">
@@ -12983,7 +12983,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C959">
@@ -13048,7 +13048,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C964">
@@ -13061,7 +13061,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C965">
@@ -13191,7 +13191,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C975">
@@ -13204,7 +13204,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C976">
@@ -13243,7 +13243,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C979">
@@ -13342,41 +13342,6 @@
       </c>
       <c r="D986">
         <v>1</v>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
